--- a/CD-valid/Input/Sampling_plan_integrated.xlsx
+++ b/CD-valid/Input/Sampling_plan_integrated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagopardo/Documents/GitHub/eu-data-validation/CD-valid/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD3F265-54DC-444E-9AEF-930C094575CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A43224-4F77-464A-ADB7-9BB48BD348D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="0" windowWidth="16400" windowHeight="18000" xr2:uid="{F7751C25-C533-C848-8DC5-5C3DB5FFAA92}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F7751C25-C533-C848-8DC5-5C3DB5FFAA92}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>country</t>
   </si>
@@ -189,6 +189,54 @@
   </si>
   <si>
     <t>CZ06</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>DK01</t>
+  </si>
+  <si>
+    <t>DK02</t>
+  </si>
+  <si>
+    <t>DK03</t>
+  </si>
+  <si>
+    <t>DK04</t>
+  </si>
+  <si>
+    <t>DK05</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>FI19</t>
+  </si>
+  <si>
+    <t>EE0</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>FI1B</t>
+  </si>
+  <si>
+    <t>FI12</t>
+  </si>
+  <si>
+    <t>FI1D</t>
   </si>
 </sst>
 </file>
@@ -554,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7870F03-ACB1-3540-8B26-982A260C6EEF}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1742,6 +1790,596 @@
         <v>277</v>
       </c>
     </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>500</v>
+      </c>
+      <c r="E21">
+        <v>257</v>
+      </c>
+      <c r="F21">
+        <v>243</v>
+      </c>
+      <c r="G21">
+        <v>57</v>
+      </c>
+      <c r="H21">
+        <v>99</v>
+      </c>
+      <c r="I21">
+        <v>80</v>
+      </c>
+      <c r="J21">
+        <v>84</v>
+      </c>
+      <c r="K21">
+        <v>72</v>
+      </c>
+      <c r="L21">
+        <v>107</v>
+      </c>
+      <c r="M21">
+        <v>100</v>
+      </c>
+      <c r="N21">
+        <v>100</v>
+      </c>
+      <c r="O21">
+        <v>100</v>
+      </c>
+      <c r="P21">
+        <v>100</v>
+      </c>
+      <c r="Q21">
+        <v>100</v>
+      </c>
+      <c r="R21">
+        <v>23</v>
+      </c>
+      <c r="S21">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22">
+        <v>500</v>
+      </c>
+      <c r="E22">
+        <v>253</v>
+      </c>
+      <c r="F22">
+        <v>247</v>
+      </c>
+      <c r="G22">
+        <v>45</v>
+      </c>
+      <c r="H22">
+        <v>63</v>
+      </c>
+      <c r="I22">
+        <v>68</v>
+      </c>
+      <c r="J22">
+        <v>92</v>
+      </c>
+      <c r="K22">
+        <v>88</v>
+      </c>
+      <c r="L22">
+        <v>144</v>
+      </c>
+      <c r="M22">
+        <v>100</v>
+      </c>
+      <c r="N22">
+        <v>100</v>
+      </c>
+      <c r="O22">
+        <v>100</v>
+      </c>
+      <c r="P22">
+        <v>100</v>
+      </c>
+      <c r="Q22">
+        <v>100</v>
+      </c>
+      <c r="R22">
+        <v>249</v>
+      </c>
+      <c r="S22">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>500</v>
+      </c>
+      <c r="E23">
+        <v>251</v>
+      </c>
+      <c r="F23">
+        <v>249</v>
+      </c>
+      <c r="G23">
+        <v>52</v>
+      </c>
+      <c r="H23">
+        <v>72</v>
+      </c>
+      <c r="I23">
+        <v>69</v>
+      </c>
+      <c r="J23">
+        <v>85</v>
+      </c>
+      <c r="K23">
+        <v>85</v>
+      </c>
+      <c r="L23">
+        <v>137</v>
+      </c>
+      <c r="M23">
+        <v>100</v>
+      </c>
+      <c r="N23">
+        <v>100</v>
+      </c>
+      <c r="O23">
+        <v>100</v>
+      </c>
+      <c r="P23">
+        <v>100</v>
+      </c>
+      <c r="Q23">
+        <v>100</v>
+      </c>
+      <c r="R23">
+        <v>209</v>
+      </c>
+      <c r="S23">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24">
+        <v>500</v>
+      </c>
+      <c r="E24">
+        <v>251</v>
+      </c>
+      <c r="F24">
+        <v>249</v>
+      </c>
+      <c r="G24">
+        <v>60</v>
+      </c>
+      <c r="H24">
+        <v>83</v>
+      </c>
+      <c r="I24">
+        <v>72</v>
+      </c>
+      <c r="J24">
+        <v>84</v>
+      </c>
+      <c r="K24">
+        <v>79</v>
+      </c>
+      <c r="L24">
+        <v>123</v>
+      </c>
+      <c r="M24">
+        <v>100</v>
+      </c>
+      <c r="N24">
+        <v>100</v>
+      </c>
+      <c r="O24">
+        <v>100</v>
+      </c>
+      <c r="P24">
+        <v>100</v>
+      </c>
+      <c r="Q24">
+        <v>100</v>
+      </c>
+      <c r="R24">
+        <v>218</v>
+      </c>
+      <c r="S24">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25">
+        <v>500</v>
+      </c>
+      <c r="E25">
+        <v>249</v>
+      </c>
+      <c r="F25">
+        <v>251</v>
+      </c>
+      <c r="G25">
+        <v>56</v>
+      </c>
+      <c r="H25">
+        <v>76</v>
+      </c>
+      <c r="I25">
+        <v>67</v>
+      </c>
+      <c r="J25">
+        <v>80</v>
+      </c>
+      <c r="K25">
+        <v>84</v>
+      </c>
+      <c r="L25">
+        <v>136</v>
+      </c>
+      <c r="M25">
+        <v>100</v>
+      </c>
+      <c r="N25">
+        <v>100</v>
+      </c>
+      <c r="O25">
+        <v>100</v>
+      </c>
+      <c r="P25">
+        <v>100</v>
+      </c>
+      <c r="Q25">
+        <v>100</v>
+      </c>
+      <c r="R25">
+        <v>264</v>
+      </c>
+      <c r="S25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26">
+        <v>1000</v>
+      </c>
+      <c r="E26">
+        <v>535</v>
+      </c>
+      <c r="F26">
+        <v>465</v>
+      </c>
+      <c r="G26">
+        <v>81</v>
+      </c>
+      <c r="H26">
+        <v>166</v>
+      </c>
+      <c r="I26">
+        <v>176</v>
+      </c>
+      <c r="J26">
+        <v>165</v>
+      </c>
+      <c r="K26">
+        <v>160</v>
+      </c>
+      <c r="L26">
+        <v>252</v>
+      </c>
+      <c r="M26">
+        <v>200</v>
+      </c>
+      <c r="N26">
+        <v>200</v>
+      </c>
+      <c r="O26">
+        <v>200</v>
+      </c>
+      <c r="P26">
+        <v>200</v>
+      </c>
+      <c r="Q26">
+        <v>200</v>
+      </c>
+      <c r="R26">
+        <v>362</v>
+      </c>
+      <c r="S26">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27">
+        <v>500</v>
+      </c>
+      <c r="E27">
+        <v>253</v>
+      </c>
+      <c r="F27">
+        <v>247</v>
+      </c>
+      <c r="G27">
+        <v>49</v>
+      </c>
+      <c r="H27">
+        <v>75</v>
+      </c>
+      <c r="I27">
+        <v>76</v>
+      </c>
+      <c r="J27">
+        <v>72</v>
+      </c>
+      <c r="K27">
+        <v>79</v>
+      </c>
+      <c r="L27">
+        <v>148</v>
+      </c>
+      <c r="M27">
+        <v>100</v>
+      </c>
+      <c r="N27">
+        <v>100</v>
+      </c>
+      <c r="O27">
+        <v>100</v>
+      </c>
+      <c r="P27">
+        <v>100</v>
+      </c>
+      <c r="Q27">
+        <v>100</v>
+      </c>
+      <c r="R27">
+        <v>203</v>
+      </c>
+      <c r="S27">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28">
+        <v>500</v>
+      </c>
+      <c r="E28">
+        <v>258</v>
+      </c>
+      <c r="F28">
+        <v>242</v>
+      </c>
+      <c r="G28">
+        <v>48</v>
+      </c>
+      <c r="H28">
+        <v>95</v>
+      </c>
+      <c r="I28">
+        <v>92</v>
+      </c>
+      <c r="J28">
+        <v>80</v>
+      </c>
+      <c r="K28">
+        <v>75</v>
+      </c>
+      <c r="L28">
+        <v>111</v>
+      </c>
+      <c r="M28">
+        <v>100</v>
+      </c>
+      <c r="N28">
+        <v>100</v>
+      </c>
+      <c r="O28">
+        <v>100</v>
+      </c>
+      <c r="P28">
+        <v>100</v>
+      </c>
+      <c r="Q28">
+        <v>100</v>
+      </c>
+      <c r="R28">
+        <v>58</v>
+      </c>
+      <c r="S28">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29">
+        <v>500</v>
+      </c>
+      <c r="E29">
+        <v>256</v>
+      </c>
+      <c r="F29">
+        <v>244</v>
+      </c>
+      <c r="G29">
+        <v>45</v>
+      </c>
+      <c r="H29">
+        <v>69</v>
+      </c>
+      <c r="I29">
+        <v>73</v>
+      </c>
+      <c r="J29">
+        <v>74</v>
+      </c>
+      <c r="K29">
+        <v>83</v>
+      </c>
+      <c r="L29">
+        <v>156</v>
+      </c>
+      <c r="M29">
+        <v>100</v>
+      </c>
+      <c r="N29">
+        <v>100</v>
+      </c>
+      <c r="O29">
+        <v>100</v>
+      </c>
+      <c r="P29">
+        <v>100</v>
+      </c>
+      <c r="Q29">
+        <v>100</v>
+      </c>
+      <c r="R29">
+        <v>116</v>
+      </c>
+      <c r="S29">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30">
+        <v>500</v>
+      </c>
+      <c r="E30">
+        <v>251</v>
+      </c>
+      <c r="F30">
+        <v>249</v>
+      </c>
+      <c r="G30">
+        <v>47</v>
+      </c>
+      <c r="H30">
+        <v>70</v>
+      </c>
+      <c r="I30">
+        <v>72</v>
+      </c>
+      <c r="J30">
+        <v>69</v>
+      </c>
+      <c r="K30">
+        <v>88</v>
+      </c>
+      <c r="L30">
+        <v>154</v>
+      </c>
+      <c r="M30">
+        <v>100</v>
+      </c>
+      <c r="N30">
+        <v>100</v>
+      </c>
+      <c r="O30">
+        <v>100</v>
+      </c>
+      <c r="P30">
+        <v>100</v>
+      </c>
+      <c r="Q30">
+        <v>100</v>
+      </c>
+      <c r="R30">
+        <v>189</v>
+      </c>
+      <c r="S30">
+        <v>311</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CD-valid/Input/Sampling_plan_integrated.xlsx
+++ b/CD-valid/Input/Sampling_plan_integrated.xlsx
@@ -2383,4 +2383,270 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579d0760968303502ff8eb3a8a5e610f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6855c386bbcb23a4cad2dada315b1779" ns2:_="" ns3:_="">
+    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <xsd:import namespace="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="46f3a809-46a3-44ee-a0f1-42a271529c86" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="23" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5ED4F016-44C7-4027-A45C-872A1F54F73E}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08FEAB72-151C-452F-B3A0-8E0E3E181FDD}"/>
 </file>